--- a/eletronic_motor/109年全國微型電動二輪車(含電輔)件數各年齡層分布(依件數).xlsx
+++ b/eletronic_motor/109年全國微型電動二輪車(含電輔)件數各年齡層分布(依件數).xlsx
@@ -382,7 +382,7 @@
     <row r="9">
       <c t="inlineStr" r="A9" s="51">
         <is>
-          <t xml:space="preserve">總計7,938486,9647,012產製日期：民國 112 年 12 月 6 日備註：不明係指案件中當事者資料無身份證號及出生日期。</t>
+          <t xml:space="preserve">總計7,938486,9647,012產製日期：民國 112 年 12 月 7 日備註：不明係指案件中當事者資料無身份證號及出生日期。</t>
         </is>
       </c>
     </row>
